--- a/public/downloads/NON-TESTED-STRICT-CURL.xlsx
+++ b/public/downloads/NON-TESTED-STRICT-CURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW TEMPLATE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="690" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683475B4-DF7A-4C0C-A5C1-3FD2B30279FB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{D3FFD2DE-F7E8-4864-BD78-B935C1BCEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73C92F3-F07F-4CF5-893C-677939A7A896}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="WOMEN MASTERS" sheetId="2" r:id="rId4"/>
     <sheet name="MEN JUNIOR 15 - 19" sheetId="3" r:id="rId5"/>
     <sheet name="WOMEN JUNIOR 15 -19" sheetId="4" r:id="rId6"/>
-    <sheet name="JUNIOR 20-23 MEN" sheetId="12" r:id="rId7"/>
-    <sheet name="JUNIOR 20-23 WOMEN " sheetId="13" r:id="rId8"/>
+    <sheet name="JUNIOR 20-23 WOMEN " sheetId="13" r:id="rId7"/>
+    <sheet name="JUNIOR 20-23 MEN" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="64">
   <si>
     <t>Weight</t>
   </si>
@@ -192,67 +192,19 @@
     <t xml:space="preserve">MASTER 80+ </t>
   </si>
   <si>
-    <t>CHARLOTTE WARRING</t>
-  </si>
-  <si>
-    <t>BRITISH CHAMPIONSHIP</t>
-  </si>
-  <si>
-    <t>30.0KG</t>
-  </si>
-  <si>
     <t>PETER BATTLE</t>
   </si>
   <si>
     <t>35.0KG</t>
   </si>
   <si>
-    <t>NICHOLAS SMALLY</t>
-  </si>
-  <si>
-    <t>65.0KG</t>
-  </si>
-  <si>
     <t>BPF ACADEMY</t>
-  </si>
-  <si>
-    <t>MONTY CROWN</t>
-  </si>
-  <si>
-    <t>37.5KG</t>
   </si>
   <si>
     <t>EUR &amp; COM CHAMP</t>
   </si>
   <si>
     <t>38.0KG</t>
-  </si>
-  <si>
-    <t>LEE JOHNSON</t>
-  </si>
-  <si>
-    <t>72.5KG</t>
-  </si>
-  <si>
-    <t>DAN ECCLES</t>
-  </si>
-  <si>
-    <t>BRITISH CHAMPIONSHIPS</t>
-  </si>
-  <si>
-    <t>63.0KG</t>
-  </si>
-  <si>
-    <t>LAURYNAS VILKAS</t>
-  </si>
-  <si>
-    <t>BPF NORTHAN CHAMPIONSHIP</t>
-  </si>
-  <si>
-    <t>81.0KG</t>
-  </si>
-  <si>
-    <t>PHIL BENISTRON</t>
   </si>
   <si>
     <t>JOHN GRIFFITHS</t>
@@ -264,46 +216,13 @@
     <t>45.0KG</t>
   </si>
   <si>
-    <t>CRAIG WILKINSON</t>
-  </si>
-  <si>
     <t>125KG</t>
   </si>
   <si>
     <t>140KG</t>
   </si>
   <si>
-    <t>JOHN COTTON</t>
-  </si>
-  <si>
-    <t>IZZY COTTON</t>
-  </si>
-  <si>
-    <t>17/0/2022</t>
-  </si>
-  <si>
-    <t>EUR &amp; CDM CHAMPIONSHIPS</t>
-  </si>
-  <si>
-    <t>27.5KG</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPEN WOMEN </t>
-  </si>
-  <si>
-    <t>SANDRA VILKIENE</t>
-  </si>
-  <si>
-    <t>40.0KG</t>
-  </si>
-  <si>
-    <t>ALI RASYEED</t>
-  </si>
-  <si>
-    <t>MAYHEM IN BOSTON</t>
-  </si>
-  <si>
-    <t>55.0KG</t>
   </si>
   <si>
     <t>LADY PETRA KENT</t>
@@ -402,10 +321,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,7 +623,7 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D21" sqref="D21:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -872,7 +787,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -883,14 +798,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -901,14 +816,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -916,27 +831,17 @@
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="7">
-        <v>44345</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -944,27 +849,17 @@
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="7">
-        <v>44345</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D23" s="5"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
@@ -972,56 +867,46 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="7">
-        <v>44619</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1585,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1599,7 +1484,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="4"/>
@@ -1728,18 +1613,9 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="7">
-        <v>44729</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1756,18 +1632,9 @@
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7">
-        <v>44836</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
@@ -1785,16 +1652,16 @@
         <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7">
         <v>44345</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1860,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A229" zoomScale="137" workbookViewId="0">
+      <selection activeCell="D228" sqref="D228:G228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2022,14 +1889,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -2040,14 +1907,14 @@
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -2055,27 +1922,17 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="7">
-        <v>45025</v>
-      </c>
-      <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -2083,27 +1940,17 @@
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="7">
-        <v>44345</v>
-      </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -2114,14 +1961,14 @@
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -2132,7 +1979,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>41</v>
@@ -2141,7 +1988,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -2152,7 +1999,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -2163,14 +2010,14 @@
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
@@ -2181,7 +2028,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2478,7 +2325,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -2489,14 +2336,14 @@
       <c r="D65" s="5"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>9</v>
@@ -2507,14 +2354,14 @@
       <c r="D67" s="5"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -2525,14 +2372,14 @@
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -2543,14 +2390,14 @@
       <c r="D71" s="5"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>29</v>
@@ -2561,14 +2408,14 @@
       <c r="D73" s="5"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="5"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>30</v>
@@ -2579,63 +2426,43 @@
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" s="7">
-        <v>44225</v>
-      </c>
-      <c r="F77" t="s">
-        <v>56</v>
-      </c>
-      <c r="G77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D77" s="5"/>
+      <c r="E77" s="7"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="7">
-        <v>44590</v>
-      </c>
-      <c r="F79" t="s">
-        <v>56</v>
-      </c>
-      <c r="G79" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D79" s="5"/>
+      <c r="E79" s="7"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2788,14 +2615,14 @@
       <c r="D96" s="5"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="5"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -2806,14 +2633,14 @@
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>11</v>
@@ -2821,27 +2648,17 @@
       <c r="C100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E100" s="7">
-        <v>44590</v>
-      </c>
-      <c r="F100" t="s">
-        <v>56</v>
-      </c>
-      <c r="G100" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D100" s="5"/>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="5"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>15</v>
@@ -2852,14 +2669,14 @@
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>16</v>
@@ -2870,14 +2687,14 @@
       <c r="D104" s="5"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="5"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>44</v>
@@ -2886,7 +2703,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>0</v>
@@ -2897,7 +2714,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>13</v>
@@ -2908,14 +2725,14 @@
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="5"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>14</v>
@@ -2926,14 +2743,14 @@
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="5"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>5</v>
@@ -3540,16 +3357,16 @@
         <v>35</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E178" s="7">
         <v>44731</v>
       </c>
       <c r="F178" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G178" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -3822,14 +3639,14 @@
       <c r="D208" s="5"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="5"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
         <v>48</v>
@@ -3838,7 +3655,7 @@
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
         <v>0</v>
@@ -3849,7 +3666,7 @@
       <c r="D211" s="5"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="1" t="s">
         <v>13</v>
@@ -3860,14 +3677,14 @@
       <c r="D212" s="5"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="5"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
         <v>14</v>
@@ -3878,14 +3695,14 @@
       <c r="D214" s="5"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="5"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
         <v>5</v>
@@ -3896,14 +3713,14 @@
       <c r="D216" s="5"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="5"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
         <v>6</v>
@@ -3914,14 +3731,14 @@
       <c r="D218" s="5"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="5"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="1" t="s">
         <v>7</v>
@@ -3932,14 +3749,14 @@
       <c r="D220" s="5"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="5"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
         <v>8</v>
@@ -3950,14 +3767,14 @@
       <c r="D222" s="5"/>
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="5"/>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
         <v>9</v>
@@ -3965,18 +3782,8 @@
       <c r="C224" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D224" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E224" s="7">
-        <v>45025</v>
-      </c>
-      <c r="F224" t="s">
-        <v>50</v>
-      </c>
-      <c r="G224" t="s">
-        <v>53</v>
-      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="7"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
@@ -3994,16 +3801,16 @@
         <v>35</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E226" s="7">
         <v>44731</v>
       </c>
       <c r="F226" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="G226" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -4021,18 +3828,8 @@
       <c r="C228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D228" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E228" s="7">
-        <v>44673</v>
-      </c>
-      <c r="F228" t="s">
-        <v>57</v>
-      </c>
-      <c r="G228" t="s">
-        <v>58</v>
-      </c>
+      <c r="D228" s="5"/>
+      <c r="E228" s="7"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
@@ -4097,8 +3894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A226" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123:H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4461,16 +4258,16 @@
         <v>35</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="E43" s="7">
         <v>44345</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -4932,22 +4729,22 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="E101" s="7">
         <v>44729</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -5037,7 +4834,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>7</v>
@@ -5047,13 +4844,13 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>8</v>
@@ -5063,13 +4860,13 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -5079,13 +4876,13 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>10</v>
@@ -5095,13 +4892,13 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>11</v>
@@ -5111,13 +4908,13 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>29</v>
@@ -5125,26 +4922,16 @@
       <c r="C123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E123" s="7">
-        <v>45025</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D123" s="5"/>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>30</v>
@@ -5154,13 +4941,13 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>31</v>
@@ -5170,7 +4957,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -6004,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -6231,8 +6018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6365,18 +6152,10 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -7053,701 +6832,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
-  <dimension ref="A1:G122"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="4"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D61" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="5"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="5"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="5"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -7968,4 +7056,695 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
+  <dimension ref="A1:G122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="5"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="5"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="5"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="5"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="5"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="5"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="5"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/downloads/NON-TESTED-STRICT-CURL.xlsx
+++ b/public/downloads/NON-TESTED-STRICT-CURL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b791772ed41bd66b/Desktop/2023 NEW TEMPLATE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D3FFD2DE-F7E8-4864-BD78-B935C1BCEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73C92F3-F07F-4CF5-893C-677939A7A896}"/>
+  <xr:revisionPtr revIDLastSave="690" documentId="8_{549BB9C3-8073-4280-B78C-D5FDAA0537B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{683475B4-DF7A-4C0C-A5C1-3FD2B30279FB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{4154235A-A9CC-3C49-98D1-D24EB0BE76D8}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN OPEN" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="WOMEN MASTERS" sheetId="2" r:id="rId4"/>
     <sheet name="MEN JUNIOR 15 - 19" sheetId="3" r:id="rId5"/>
     <sheet name="WOMEN JUNIOR 15 -19" sheetId="4" r:id="rId6"/>
-    <sheet name="JUNIOR 20-23 WOMEN " sheetId="13" r:id="rId7"/>
-    <sheet name="JUNIOR 20-23 MEN" sheetId="12" r:id="rId8"/>
+    <sheet name="JUNIOR 20-23 MEN" sheetId="12" r:id="rId7"/>
+    <sheet name="JUNIOR 20-23 WOMEN " sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="91">
   <si>
     <t>Weight</t>
   </si>
@@ -192,21 +192,69 @@
     <t xml:space="preserve">MASTER 80+ </t>
   </si>
   <si>
+    <t>CHARLOTTE WARRING</t>
+  </si>
+  <si>
+    <t>BRITISH CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>30.0KG</t>
+  </si>
+  <si>
     <t>PETER BATTLE</t>
   </si>
   <si>
     <t>35.0KG</t>
   </si>
   <si>
+    <t>NICHOLAS SMALLY</t>
+  </si>
+  <si>
+    <t>65.0KG</t>
+  </si>
+  <si>
     <t>BPF ACADEMY</t>
   </si>
   <si>
+    <t>MONTY CROWN</t>
+  </si>
+  <si>
+    <t>37.5KG</t>
+  </si>
+  <si>
     <t>EUR &amp; COM CHAMP</t>
   </si>
   <si>
     <t>38.0KG</t>
   </si>
   <si>
+    <t>LEE JOHNSON</t>
+  </si>
+  <si>
+    <t>72.5KG</t>
+  </si>
+  <si>
+    <t>DAN ECCLES</t>
+  </si>
+  <si>
+    <t>BRITISH CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>63.0KG</t>
+  </si>
+  <si>
+    <t>LAURYNAS VILKAS</t>
+  </si>
+  <si>
+    <t>BPF NORTHAN CHAMPIONSHIP</t>
+  </si>
+  <si>
+    <t>81.0KG</t>
+  </si>
+  <si>
+    <t>PHIL BENISTRON</t>
+  </si>
+  <si>
     <t>JOHN GRIFFITHS</t>
   </si>
   <si>
@@ -216,13 +264,46 @@
     <t>45.0KG</t>
   </si>
   <si>
+    <t>CRAIG WILKINSON</t>
+  </si>
+  <si>
     <t>125KG</t>
   </si>
   <si>
     <t>140KG</t>
   </si>
   <si>
+    <t>JOHN COTTON</t>
+  </si>
+  <si>
+    <t>IZZY COTTON</t>
+  </si>
+  <si>
+    <t>17/0/2022</t>
+  </si>
+  <si>
+    <t>EUR &amp; CDM CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>27.5KG</t>
+  </si>
+  <si>
     <t xml:space="preserve">OPEN WOMEN </t>
+  </si>
+  <si>
+    <t>SANDRA VILKIENE</t>
+  </si>
+  <si>
+    <t>40.0KG</t>
+  </si>
+  <si>
+    <t>ALI RASYEED</t>
+  </si>
+  <si>
+    <t>MAYHEM IN BOSTON</t>
+  </si>
+  <si>
+    <t>55.0KG</t>
   </si>
   <si>
     <t>LADY PETRA KENT</t>
@@ -321,6 +402,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -623,7 +708,7 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:G25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -787,7 +872,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
@@ -798,14 +883,14 @@
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -816,14 +901,14 @@
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1" t="s">
         <v>11</v>
@@ -831,17 +916,27 @@
       <c r="C21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="7">
+        <v>44345</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1" t="s">
         <v>29</v>
@@ -849,17 +944,27 @@
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7">
+        <v>44345</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>30</v>
@@ -867,46 +972,56 @@
       <c r="C25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="7">
+        <v>44619</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1470,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7186C1C6-534A-8649-9BC5-24AFC98A5F9D}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1484,7 +1599,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1"/>
       <c r="F1" s="4"/>
@@ -1613,9 +1728,18 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44729</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
@@ -1632,9 +1756,18 @@
       <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7">
+        <v>44836</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
@@ -1652,16 +1785,16 @@
         <v>35</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E18" s="7">
         <v>44345</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1727,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C68180E9-570C-BE40-A2EC-46381CEBEE35}">
   <dimension ref="A1:G234"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D228" sqref="D228:G228"/>
+    <sheetView topLeftCell="A5" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1889,14 +2022,14 @@
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1907,14 +2040,14 @@
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>11</v>
@@ -1922,17 +2055,27 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45025</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>29</v>
@@ -1940,17 +2083,27 @@
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7">
+        <v>44345</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>30</v>
@@ -1961,14 +2114,14 @@
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>31</v>
@@ -1979,7 +2132,7 @@
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
         <v>41</v>
@@ -1988,7 +2141,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -1999,7 +2152,7 @@
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="1" t="s">
         <v>13</v>
@@ -2010,14 +2163,14 @@
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
         <v>14</v>
@@ -2028,7 +2181,7 @@
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2325,7 +2478,7 @@
       <c r="D64" s="5"/>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>8</v>
@@ -2336,14 +2489,14 @@
       <c r="D65" s="5"/>
       <c r="E65" s="4"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="5"/>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="1" t="s">
         <v>9</v>
@@ -2354,14 +2507,14 @@
       <c r="D67" s="5"/>
       <c r="E67" s="4"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="5"/>
       <c r="E68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="1" t="s">
         <v>10</v>
@@ -2372,14 +2525,14 @@
       <c r="D69" s="5"/>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="5"/>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="1" t="s">
         <v>11</v>
@@ -2390,14 +2543,14 @@
       <c r="D71" s="5"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="5"/>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>29</v>
@@ -2408,14 +2561,14 @@
       <c r="D73" s="5"/>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="5"/>
       <c r="E74" s="4"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>30</v>
@@ -2426,43 +2579,63 @@
       <c r="D75" s="5"/>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="5"/>
       <c r="E76" s="4"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D77" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="7">
+        <v>44225</v>
+      </c>
+      <c r="F77" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="5"/>
       <c r="E78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="7"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D79" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79" s="7">
+        <v>44590</v>
+      </c>
+      <c r="F79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2615,14 +2788,14 @@
       <c r="D96" s="5"/>
       <c r="E96" s="4"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="5"/>
       <c r="E97" s="4"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>10</v>
@@ -2633,14 +2806,14 @@
       <c r="D98" s="5"/>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="5"/>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>11</v>
@@ -2648,17 +2821,27 @@
       <c r="C100" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D100" s="5"/>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D100" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="7">
+        <v>44590</v>
+      </c>
+      <c r="F100" t="s">
+        <v>56</v>
+      </c>
+      <c r="G100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="5"/>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>15</v>
@@ -2669,14 +2852,14 @@
       <c r="D102" s="5"/>
       <c r="E102" s="4"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="5"/>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>16</v>
@@ -2687,14 +2870,14 @@
       <c r="D104" s="5"/>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="5"/>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>44</v>
@@ -2703,7 +2886,7 @@
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>0</v>
@@ -2714,7 +2897,7 @@
       <c r="D107" s="5"/>
       <c r="E107" s="4"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>13</v>
@@ -2725,14 +2908,14 @@
       <c r="D108" s="5"/>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="5"/>
       <c r="E109" s="4"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>14</v>
@@ -2743,14 +2926,14 @@
       <c r="D110" s="5"/>
       <c r="E110" s="4"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="5"/>
       <c r="E111" s="4"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>5</v>
@@ -3357,16 +3540,16 @@
         <v>35</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E178" s="7">
         <v>44731</v>
       </c>
       <c r="F178" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G178" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
@@ -3639,14 +3822,14 @@
       <c r="D208" s="5"/>
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="5"/>
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
         <v>48</v>
@@ -3655,7 +3838,7 @@
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
         <v>0</v>
@@ -3666,7 +3849,7 @@
       <c r="D211" s="5"/>
       <c r="E211" s="4"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="2"/>
       <c r="B212" s="1" t="s">
         <v>13</v>
@@ -3677,14 +3860,14 @@
       <c r="D212" s="5"/>
       <c r="E212" s="4"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="2"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="5"/>
       <c r="E213" s="4"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="2"/>
       <c r="B214" s="1" t="s">
         <v>14</v>
@@ -3695,14 +3878,14 @@
       <c r="D214" s="5"/>
       <c r="E214" s="4"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="5"/>
       <c r="E215" s="4"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
         <v>5</v>
@@ -3713,14 +3896,14 @@
       <c r="D216" s="5"/>
       <c r="E216" s="4"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="5"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="2"/>
       <c r="B218" s="1" t="s">
         <v>6</v>
@@ -3731,14 +3914,14 @@
       <c r="D218" s="5"/>
       <c r="E218" s="4"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="5"/>
       <c r="E219" s="4"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="2"/>
       <c r="B220" s="1" t="s">
         <v>7</v>
@@ -3749,14 +3932,14 @@
       <c r="D220" s="5"/>
       <c r="E220" s="4"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="2"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="5"/>
       <c r="E221" s="4"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="2"/>
       <c r="B222" s="1" t="s">
         <v>8</v>
@@ -3767,14 +3950,14 @@
       <c r="D222" s="5"/>
       <c r="E222" s="4"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="2"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="5"/>
       <c r="E223" s="4"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
         <v>9</v>
@@ -3782,8 +3965,18 @@
       <c r="C224" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D224" s="5"/>
-      <c r="E224" s="7"/>
+      <c r="D224" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E224" s="7">
+        <v>45025</v>
+      </c>
+      <c r="F224" t="s">
+        <v>50</v>
+      </c>
+      <c r="G224" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="2"/>
@@ -3801,16 +3994,16 @@
         <v>35</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E226" s="7">
         <v>44731</v>
       </c>
       <c r="F226" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G226" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -3828,8 +4021,18 @@
       <c r="C228" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D228" s="5"/>
-      <c r="E228" s="7"/>
+      <c r="D228" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E228" s="7">
+        <v>44673</v>
+      </c>
+      <c r="F228" t="s">
+        <v>57</v>
+      </c>
+      <c r="G228" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="2"/>
@@ -3894,8 +4097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7517E2C-6F9F-784C-B257-599DEE4B6BE5}">
   <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScale="117" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123:H123"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4258,16 +4461,16 @@
         <v>35</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="E43" s="7">
         <v>44345</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -4729,22 +4932,22 @@
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="E101" s="7">
         <v>44729</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4834,7 +5037,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>7</v>
@@ -4844,13 +5047,13 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>8</v>
@@ -4860,13 +5063,13 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>9</v>
@@ -4876,13 +5079,13 @@
       </c>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>10</v>
@@ -4892,13 +5095,13 @@
       </c>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>11</v>
@@ -4908,13 +5111,13 @@
       </c>
       <c r="D121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>29</v>
@@ -4922,16 +5125,26 @@
       <c r="C123" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="5"/>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D123" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45025</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>30</v>
@@ -4941,13 +5154,13 @@
       </c>
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>31</v>
@@ -4957,7 +5170,7 @@
       </c>
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -5791,7 +6004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1264358B-42F3-BF44-A497-B70A8A3F8DB6}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -6018,8 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5966D34-AFDC-8D46-87F5-1A179AC4B902}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:G12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6152,10 +6365,18 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
@@ -6832,10 +7053,701 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
+  <dimension ref="A1:G122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="5"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="5"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="5"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="5"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="5"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="5"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="5"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="5"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="5"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="5"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="5"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="5"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="5"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="5"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="5"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="5"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="5"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="5"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="5"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="5"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22797B1-D157-4F23-BC29-DEA3C11849AE}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -7056,695 +7968,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6422B65-234B-456E-A916-65D202B4702C}">
-  <dimension ref="A1:G122"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="4"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D61" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="5"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="5"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="5"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="5"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="5"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>